--- a/src/main/resources/excel-files/test-data.xlsx
+++ b/src/main/resources/excel-files/test-data.xlsx
@@ -7,10 +7,48 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="6" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,12 +385,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel-files/test-data.xlsx
+++ b/src/main/resources/excel-files/test-data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="6" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -47,6 +48,33 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>John Q</t>
+  </si>
+  <si>
+    <t>Mary W</t>
+  </si>
+  <si>
+    <t>Joe E</t>
+  </si>
+  <si>
+    <t>Susan R</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -387,7 +415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -451,4 +479,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>